--- a/BD_Equipement/sql/Dictionnaire_Donnees_Equipement.xlsx
+++ b/BD_Equipement/sql/Dictionnaire_Donnees_Equipement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="60" windowWidth="19440" windowHeight="12330" tabRatio="967"/>
+    <workbookView xWindow="-225" yWindow="60" windowWidth="19440" windowHeight="12330" tabRatio="967" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Catégories_Dico_Equipement" sheetId="20" r:id="rId1"/>
@@ -2130,6 +2130,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2137,6 +2146,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,6 +2163,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2162,28 +2180,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2503,7 +2503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2532,58 +2532,58 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="38"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="16" t="s">
@@ -2591,12 +2591,12 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="39"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="3" t="s">
         <v>192</v>
       </c>
@@ -2612,8 +2612,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2629,7 +2630,7 @@
     <col min="2" max="2" width="24.125" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2650,53 +2651,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -2704,12 +2705,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>223</v>
@@ -2725,8 +2726,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2742,7 +2744,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2763,53 +2765,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -2818,11 +2820,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>97</v>
@@ -2838,8 +2840,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2847,17 +2850,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -2878,103 +2879,103 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>171</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>207</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>173</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="14"/>
@@ -2982,25 +2983,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
       <c r="B11" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="11"/>
@@ -3009,11 +3010,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3" t="s">
         <v>59</v>
@@ -3036,8 +3037,9 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3053,7 +3055,7 @@
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -3074,53 +3076,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>179</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>180</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -3129,11 +3131,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>182</v>
@@ -3149,8 +3151,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3163,10 +3166,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.875" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -3187,79 +3190,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>184</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -3267,47 +3270,47 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>228</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="17"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3316,22 +3319,22 @@
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="14"/>
@@ -3339,25 +3342,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
       <c r="B15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="14"/>
       <c r="E15" s="13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>187</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="11"/>
@@ -3366,24 +3369,24 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="10"/>
       <c r="E17" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>229</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="20"/>
@@ -3392,11 +3395,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>221</v>
@@ -3404,6 +3407,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A18:A19"/>
@@ -3412,21 +3425,12 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3442,7 +3446,7 @@
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -3463,53 +3467,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -3518,11 +3522,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="204" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>232</v>
@@ -3538,8 +3542,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3554,8 +3559,8 @@
     <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -3576,79 +3581,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="19"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>233</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -3657,24 +3662,24 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>235</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="18"/>
@@ -3683,24 +3688,24 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="19"/>
       <c r="E11" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3709,22 +3714,22 @@
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>236</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="18"/>
@@ -3733,24 +3738,24 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="19"/>
       <c r="E15" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="9"/>
@@ -3759,24 +3764,24 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="6"/>
       <c r="E17" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="18"/>
@@ -3785,24 +3790,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="19"/>
       <c r="E19" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="9"/>
@@ -3811,24 +3816,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="6"/>
       <c r="E21" s="3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="18"/>
@@ -3837,11 +3842,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="19"/>
       <c r="E23" s="3" t="s">
         <v>102</v>
@@ -3849,20 +3854,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
@@ -3872,9 +3863,24 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3890,7 +3896,7 @@
     <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -3911,53 +3917,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>245</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>246</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -3966,11 +3972,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>128</v>
@@ -3986,8 +3992,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4003,7 +4010,7 @@
     <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4024,53 +4031,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="19"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -4079,11 +4086,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>247</v>
@@ -4098,8 +4105,9 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4115,7 +4123,7 @@
     <col min="2" max="2" width="24.375" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4136,53 +4144,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -4191,11 +4199,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>248</v>
@@ -4211,8 +4219,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4225,10 +4234,10 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4249,55 +4258,55 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -4306,24 +4315,24 @@
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4332,68 +4341,68 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="27"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -4402,123 +4411,123 @@
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="17"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="26"/>
+      <c r="C16" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="30"/>
       <c r="E16" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="26"/>
+      <c r="C18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="30"/>
       <c r="E18" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="27"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="26"/>
+      <c r="C20" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="30"/>
       <c r="E20" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4535,7 +4544,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4556,53 +4565,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -4611,11 +4620,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>136</v>
@@ -4631,8 +4640,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4647,8 +4657,8 @@
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -4669,79 +4679,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>250</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>251</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -4750,24 +4760,24 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -4776,50 +4786,50 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="6" t="s">
         <v>258</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="28"/>
+      <c r="C12" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -4828,22 +4838,22 @@
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>253</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="18"/>
@@ -4851,51 +4861,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>255</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="28"/>
+      <c r="C18" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="34"/>
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="3" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="9"/>
@@ -4903,45 +4913,57 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="6"/>
       <c r="E21" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="28"/>
+      <c r="C22" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="34"/>
       <c r="E22" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="5" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
@@ -4957,21 +4979,10 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4987,7 +4998,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5008,53 +5019,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>262</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -5063,11 +5074,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>264</v>
@@ -5083,8 +5094,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5096,11 +5108,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="1" max="1" width="36.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5121,79 +5133,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>267</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>271</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5202,94 +5214,94 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>273</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="17"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>268</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>269</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="28"/>
+      <c r="C14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="34"/>
       <c r="E14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="5" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>270</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="9"/>
@@ -5298,11 +5310,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="6"/>
       <c r="E17" s="3" t="s">
         <v>102</v>
@@ -5310,11 +5322,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="A2:E2"/>
@@ -5329,9 +5336,15 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5343,11 +5356,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5368,53 +5381,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>267</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>276</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -5422,12 +5435,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:5" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>277</v>
@@ -5443,8 +5456,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5456,10 +5470,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5480,75 +5494,75 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>280</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>281</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>282</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="9"/>
@@ -5557,11 +5571,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
         <v>288</v>
@@ -5579,8 +5593,9 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5596,7 +5611,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5617,55 +5632,55 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -5674,11 +5689,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>43</v>
@@ -5686,16 +5701,17 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5710,8 +5726,8 @@
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5732,77 +5748,77 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>198</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
@@ -5811,35 +5827,35 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="17" t="s">
         <v>224</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>199</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="10"/>
       <c r="E11" s="3"/>
     </row>
@@ -5857,8 +5873,8 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:C7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5867,14 +5883,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -5895,103 +5914,103 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>201</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="14"/>
@@ -5999,25 +6018,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
       <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="14"/>
       <c r="E11" s="13" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="11"/>
@@ -6025,12 +6044,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="10"/>
       <c r="E13" s="3" t="s">
         <v>59</v>
@@ -6053,8 +6072,9 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6070,7 +6090,7 @@
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6091,55 +6111,55 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -6148,11 +6168,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>203</v>
@@ -6168,8 +6188,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6185,7 +6206,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6206,53 +6227,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -6261,11 +6282,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>204</v>
@@ -6281,8 +6302,9 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6297,8 +6319,8 @@
     <col min="1" max="1" width="22.75" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6319,79 +6341,79 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>209</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>207</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="39"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -6400,72 +6422,72 @@
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="31"/>
       <c r="D9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="24" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="17"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>213</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -6474,22 +6496,22 @@
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="17"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="20"/>
@@ -6497,25 +6519,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
       <c r="B17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="17"/>
       <c r="E17" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="20"/>
@@ -6523,25 +6545,25 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
       <c r="B19" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="17"/>
       <c r="E19" s="3" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="20"/>
@@ -6550,24 +6572,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="17"/>
       <c r="E21" s="3" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="20"/>
@@ -6575,41 +6597,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="17"/>
       <c r="E23" s="3" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="24" t="s">
         <v>218</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="17"/>
       <c r="E25" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="A18:A19"/>
@@ -6626,19 +6658,10 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6654,7 +6677,7 @@
     <col min="2" max="2" width="24.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -6675,53 +6698,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="28"/>
+      <c r="C4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9"/>
@@ -6730,11 +6753,11 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>222</v>
@@ -6750,7 +6773,8 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>